--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_固定明細_単一シート.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_固定明細_単一シート.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\Downloads\DioDocsExcelReport2-master\DioDocsExcelReport2-master\DioDocsExcelReport2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F7E188-B227-4AFD-BCBD-9FF094C7B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D5DBB-8CEE-495A-9509-65BCEC207295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="1764" windowWidth="31596" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23604" yWindow="5976" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">請求書!$A$1:$I$40</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>伝票番号</t>
     <rPh sb="0" eb="2">
@@ -285,6 +282,10 @@
   </si>
   <si>
     <t>{{ds.customer.companyname(R=A1:I40)}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{(C=A6, Pb=true)}}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -319,41 +320,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <sz val="20"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -593,11 +594,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,27 +605,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,13 +637,7 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,12 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -674,12 +658,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1019,13 +1020,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BB5E0-F050-4C2B-BB25-385E7845916F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
@@ -1037,63 +1041,66 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44368</v>
-      </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H2" s="7" t="s">
+        <v>44371</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="6" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>21-1709</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>24-1714</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1104,23 +1111,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1128,8 +1135,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1137,8 +1144,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="11"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,353 +1153,298 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="21" t="s">
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="33" t="s">
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C38" s="36" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10" t="s">
+      <c r="G38" s="33"/>
+      <c r="H38" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="37"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13" t="s">
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="36" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="D4:G5"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="H17:I17"/>
@@ -1502,23 +1454,80 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="68" max="8" man="1"/>
-    <brk id="118" max="8" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="53" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DirectSourceMarket xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34">english</DirectSourceMarket>
@@ -1654,15 +1663,6 @@
     <LocMarketGroupTiers2 xmlns="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2706,6 +2706,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B99CB1-8E2B-4A06-BE97-F0CCC71A7538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2717,14 +2725,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
